--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.3338047639602</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H2">
-        <v>19.3338047639602</v>
+        <v>120.951583</v>
       </c>
       <c r="I2">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J2">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.318435231047449</v>
+        <v>0.1546356666666667</v>
       </c>
       <c r="N2">
-        <v>0.318435231047449</v>
+        <v>0.463907</v>
       </c>
       <c r="O2">
-        <v>0.001496427979473266</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="P2">
-        <v>0.001496427979473266</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="Q2">
-        <v>6.156564587037936</v>
+        <v>6.234476223864556</v>
       </c>
       <c r="R2">
-        <v>6.156564587037936</v>
+        <v>56.110286014781</v>
       </c>
       <c r="S2">
-        <v>9.621969949985529E-05</v>
+        <v>6.898038798536079E-05</v>
       </c>
       <c r="T2">
-        <v>9.621969949985529E-05</v>
+        <v>6.898038798536079E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.3338047639602</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H3">
-        <v>19.3338047639602</v>
+        <v>120.951583</v>
       </c>
       <c r="I3">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J3">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>212.413100729008</v>
+        <v>0.3253436666666666</v>
       </c>
       <c r="N3">
-        <v>212.413100729008</v>
+        <v>0.976031</v>
       </c>
       <c r="O3">
-        <v>0.9981964184427737</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="P3">
-        <v>0.9981964184427737</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="Q3">
-        <v>4106.753418802053</v>
+        <v>13.11694383411922</v>
       </c>
       <c r="R3">
-        <v>4106.753418802053</v>
+        <v>118.052494507073</v>
       </c>
       <c r="S3">
-        <v>0.0641836164131355</v>
+        <v>0.0001451303754108898</v>
       </c>
       <c r="T3">
-        <v>0.0641836164131355</v>
+        <v>0.0001451303754108899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.3338047639602</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H4">
-        <v>19.3338047639602</v>
+        <v>120.951583</v>
       </c>
       <c r="I4">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J4">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.065361328336855</v>
+        <v>231.9004236666667</v>
       </c>
       <c r="N4">
-        <v>0.065361328336855</v>
+        <v>695.701271</v>
       </c>
       <c r="O4">
-        <v>0.0003071535777529419</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="P4">
-        <v>0.0003071535777529419</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="Q4">
-        <v>1.263683161177854</v>
+        <v>9349.574446951334</v>
       </c>
       <c r="R4">
-        <v>1.263683161177854</v>
+        <v>84146.170022562</v>
       </c>
       <c r="S4">
-        <v>1.974984787580384E-05</v>
+        <v>0.1034469055122872</v>
       </c>
       <c r="T4">
-        <v>1.974984787580384E-05</v>
+        <v>0.1034469055122872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.229766986902</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H5">
-        <v>137.229766986902</v>
+        <v>120.951583</v>
       </c>
       <c r="I5">
-        <v>0.4563932090161344</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J5">
-        <v>0.4563932090161344</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.318435231047449</v>
+        <v>3.999992666666667</v>
       </c>
       <c r="N5">
-        <v>0.318435231047449</v>
+        <v>11.999978</v>
       </c>
       <c r="O5">
-        <v>0.001496427979473266</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="P5">
-        <v>0.001496427979473266</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="Q5">
-        <v>43.69879255706173</v>
+        <v>161.2684816739082</v>
       </c>
       <c r="R5">
-        <v>43.69879255706173</v>
+        <v>1451.416335065174</v>
       </c>
       <c r="S5">
-        <v>0.000682959567613334</v>
+        <v>0.001784329915814579</v>
       </c>
       <c r="T5">
-        <v>0.000682959567613334</v>
+        <v>0.001784329915814579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.229766986902</v>
+        <v>137.4747006666667</v>
       </c>
       <c r="H6">
-        <v>137.229766986902</v>
+        <v>412.424102</v>
       </c>
       <c r="I6">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="J6">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>212.413100729008</v>
+        <v>0.1546356666666667</v>
       </c>
       <c r="N6">
-        <v>212.413100729008</v>
+        <v>0.463907</v>
       </c>
       <c r="O6">
-        <v>0.9981964184427737</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="P6">
-        <v>0.9981964184427737</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="Q6">
-        <v>29149.40031800711</v>
+        <v>21.25849198739045</v>
       </c>
       <c r="R6">
-        <v>29149.40031800711</v>
+        <v>191.326427886514</v>
       </c>
       <c r="S6">
-        <v>0.4555700666415096</v>
+        <v>0.0002352112627618443</v>
       </c>
       <c r="T6">
-        <v>0.4555700666415096</v>
+        <v>0.0002352112627618443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>137.229766986902</v>
+        <v>137.4747006666667</v>
       </c>
       <c r="H7">
-        <v>137.229766986902</v>
+        <v>412.424102</v>
       </c>
       <c r="I7">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="J7">
-        <v>0.4563932090161344</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.065361328336855</v>
+        <v>0.3253436666666666</v>
       </c>
       <c r="N7">
-        <v>0.065361328336855</v>
+        <v>0.976031</v>
       </c>
       <c r="O7">
-        <v>0.0003071535777529419</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="P7">
-        <v>0.0003071535777529419</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="Q7">
-        <v>8.969519857621007</v>
+        <v>44.72652318879578</v>
       </c>
       <c r="R7">
-        <v>8.969519857621007</v>
+        <v>402.538708699162</v>
       </c>
       <c r="S7">
-        <v>0.0001401828070114519</v>
+        <v>0.0004948696268965668</v>
       </c>
       <c r="T7">
-        <v>0.0001401828070114519</v>
+        <v>0.0004948696268965668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>63.8577508184308</v>
+        <v>137.4747006666667</v>
       </c>
       <c r="H8">
-        <v>63.8577508184308</v>
+        <v>412.424102</v>
       </c>
       <c r="I8">
-        <v>0.212375525051777</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="J8">
-        <v>0.212375525051777</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.318435231047449</v>
+        <v>231.9004236666667</v>
       </c>
       <c r="N8">
-        <v>0.318435231047449</v>
+        <v>695.701271</v>
       </c>
       <c r="O8">
-        <v>0.001496427979473266</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="P8">
-        <v>0.001496427979473266</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="Q8">
-        <v>20.33455763603743</v>
+        <v>31880.44132804819</v>
       </c>
       <c r="R8">
-        <v>20.33455763603743</v>
+        <v>286923.9719524336</v>
       </c>
       <c r="S8">
-        <v>0.0003178046778428045</v>
+        <v>0.3527361614654015</v>
       </c>
       <c r="T8">
-        <v>0.0003178046778428045</v>
+        <v>0.3527361614654015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>63.8577508184308</v>
+        <v>137.4747006666667</v>
       </c>
       <c r="H9">
-        <v>63.8577508184308</v>
+        <v>412.424102</v>
       </c>
       <c r="I9">
-        <v>0.212375525051777</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="J9">
-        <v>0.212375525051777</v>
+        <v>0.3595505005759843</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>212.413100729008</v>
+        <v>3.999992666666667</v>
       </c>
       <c r="N9">
-        <v>212.413100729008</v>
+        <v>11.999978</v>
       </c>
       <c r="O9">
-        <v>0.9981964184427737</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="P9">
-        <v>0.9981964184427737</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="Q9">
-        <v>13564.22285692323</v>
+        <v>549.8977945188618</v>
       </c>
       <c r="R9">
-        <v>13564.22285692323</v>
+        <v>4949.080150669756</v>
       </c>
       <c r="S9">
-        <v>0.2119924884715873</v>
+        <v>0.006084258220924346</v>
       </c>
       <c r="T9">
-        <v>0.2119924884715873</v>
+        <v>0.006084258220924346</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>63.8577508184308</v>
+        <v>81.80342533333332</v>
       </c>
       <c r="H10">
-        <v>63.8577508184308</v>
+        <v>245.410276</v>
       </c>
       <c r="I10">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="J10">
-        <v>0.212375525051777</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.065361328336855</v>
+        <v>0.1546356666666667</v>
       </c>
       <c r="N10">
-        <v>0.065361328336855</v>
+        <v>0.463907</v>
       </c>
       <c r="O10">
-        <v>0.0003071535777529419</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="P10">
-        <v>0.0003071535777529419</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="Q10">
-        <v>4.173827418096526</v>
+        <v>12.64972721203689</v>
       </c>
       <c r="R10">
-        <v>4.173827418096526</v>
+        <v>113.847544908332</v>
       </c>
       <c r="S10">
-        <v>6.523190234681283E-05</v>
+        <v>0.0001399609301027046</v>
       </c>
       <c r="T10">
-        <v>6.523190234681283E-05</v>
+        <v>0.0001399609301027046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.26186963405689</v>
+        <v>81.80342533333332</v>
       </c>
       <c r="H11">
-        <v>80.26186963405689</v>
+        <v>245.410276</v>
       </c>
       <c r="I11">
-        <v>0.2669316799715774</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="J11">
-        <v>0.2669316799715774</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.318435231047449</v>
+        <v>0.3253436666666666</v>
       </c>
       <c r="N11">
-        <v>0.318435231047449</v>
+        <v>0.976031</v>
       </c>
       <c r="O11">
-        <v>0.001496427979473266</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="P11">
-        <v>0.001496427979473266</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="Q11">
-        <v>25.55820700122113</v>
+        <v>26.61422634383955</v>
       </c>
       <c r="R11">
-        <v>25.55820700122113</v>
+        <v>239.528037094556</v>
       </c>
       <c r="S11">
-        <v>0.000399444034517272</v>
+        <v>0.0002944689486665924</v>
       </c>
       <c r="T11">
-        <v>0.000399444034517272</v>
+        <v>0.0002944689486665924</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.26186963405689</v>
+        <v>81.80342533333332</v>
       </c>
       <c r="H12">
-        <v>80.26186963405689</v>
+        <v>245.410276</v>
       </c>
       <c r="I12">
-        <v>0.2669316799715774</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="J12">
-        <v>0.2669316799715774</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>212.413100729008</v>
+        <v>231.9004236666667</v>
       </c>
       <c r="N12">
-        <v>212.413100729008</v>
+        <v>695.701271</v>
       </c>
       <c r="O12">
-        <v>0.9981964184427737</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="P12">
-        <v>0.9981964184427737</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="Q12">
-        <v>17048.67259927743</v>
+        <v>18970.24899218453</v>
       </c>
       <c r="R12">
-        <v>17048.67259927743</v>
+        <v>170732.2409296608</v>
       </c>
       <c r="S12">
-        <v>0.2664502469165412</v>
+        <v>0.2098933557001592</v>
       </c>
       <c r="T12">
-        <v>0.2664502469165412</v>
+        <v>0.2098933557001592</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.26186963405689</v>
+        <v>81.80342533333332</v>
       </c>
       <c r="H13">
-        <v>80.26186963405689</v>
+        <v>245.410276</v>
       </c>
       <c r="I13">
-        <v>0.2669316799715774</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="J13">
-        <v>0.2669316799715774</v>
+        <v>0.2139481838098067</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.065361328336855</v>
+        <v>3.999992666666667</v>
       </c>
       <c r="N13">
-        <v>0.065361328336855</v>
+        <v>11.999978</v>
       </c>
       <c r="O13">
-        <v>0.0003071535777529419</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="P13">
-        <v>0.0003071535777529419</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="Q13">
-        <v>5.246022414081445</v>
+        <v>327.2131014415476</v>
       </c>
       <c r="R13">
-        <v>5.246022414081445</v>
+        <v>2944.917912973928</v>
       </c>
       <c r="S13">
-        <v>8.198902051887331E-05</v>
+        <v>0.003620398230878156</v>
       </c>
       <c r="T13">
-        <v>8.198902051887331E-05</v>
+        <v>0.003620398230878157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>122.756256</v>
+      </c>
+      <c r="H14">
+        <v>368.268768</v>
+      </c>
+      <c r="I14">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="J14">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1546356666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.463907</v>
+      </c>
+      <c r="O14">
+        <v>0.0006541814359458435</v>
+      </c>
+      <c r="P14">
+        <v>0.0006541814359458435</v>
+      </c>
+      <c r="Q14">
+        <v>18.982495484064</v>
+      </c>
+      <c r="R14">
+        <v>170.842459356576</v>
+      </c>
+      <c r="S14">
+        <v>0.0002100288550959339</v>
+      </c>
+      <c r="T14">
+        <v>0.0002100288550959339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>122.756256</v>
+      </c>
+      <c r="H15">
+        <v>368.268768</v>
+      </c>
+      <c r="I15">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="J15">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3253436666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.976031</v>
+      </c>
+      <c r="O15">
+        <v>0.001376356384162467</v>
+      </c>
+      <c r="P15">
+        <v>0.001376356384162467</v>
+      </c>
+      <c r="Q15">
+        <v>39.937970433312</v>
+      </c>
+      <c r="R15">
+        <v>359.441733899808</v>
+      </c>
+      <c r="S15">
+        <v>0.000441887433188418</v>
+      </c>
+      <c r="T15">
+        <v>0.000441887433188418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>122.756256</v>
+      </c>
+      <c r="H16">
+        <v>368.268768</v>
+      </c>
+      <c r="I16">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="J16">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>231.9004236666667</v>
+      </c>
+      <c r="N16">
+        <v>695.701271</v>
+      </c>
+      <c r="O16">
+        <v>0.9810476161216116</v>
+      </c>
+      <c r="P16">
+        <v>0.9810476161216116</v>
+      </c>
+      <c r="Q16">
+        <v>28467.2277741338</v>
+      </c>
+      <c r="R16">
+        <v>256205.0499672042</v>
+      </c>
+      <c r="S16">
+        <v>0.3149711934437636</v>
+      </c>
+      <c r="T16">
+        <v>0.3149711934437636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>122.756256</v>
+      </c>
+      <c r="H17">
+        <v>368.268768</v>
+      </c>
+      <c r="I17">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="J17">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.999992666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.999978</v>
+      </c>
+      <c r="O17">
+        <v>0.01692184605828007</v>
+      </c>
+      <c r="P17">
+        <v>0.01692184605828007</v>
+      </c>
+      <c r="Q17">
+        <v>491.0241237874561</v>
+      </c>
+      <c r="R17">
+        <v>4419.217114087104</v>
+      </c>
+      <c r="S17">
+        <v>0.005432859690662988</v>
+      </c>
+      <c r="T17">
+        <v>0.005432859690662988</v>
       </c>
     </row>
   </sheetData>
